--- a/data/poas/poas18.xlsx
+++ b/data/poas/poas18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8FEB4D-1EFD-B847-BB9E-31EE8A924C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715ADAF4-A706-844D-91D1-6553C8060445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,13 +299,7 @@
     <t>IVW</t>
   </si>
   <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>SEL</t>
-  </si>
-  <si>
-    <t>NON-SELECT</t>
   </si>
   <si>
     <t>BRD</t>
@@ -348,9 +342,6 @@
   </si>
   <si>
     <t>PV2</t>
-  </si>
-  <si>
-    <t>NON SELECT</t>
   </si>
   <si>
     <t>25B</t>
@@ -466,14 +457,23 @@
   <si>
     <t>15E</t>
   </si>
+  <si>
+    <t>NON-SELECTED</t>
+  </si>
+  <si>
+    <t>NON SELECTED</t>
+  </si>
+  <si>
+    <t>SELECTEDED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
@@ -1156,7 +1156,7 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="33" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="49" fontId="25" fillId="36" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -1228,7 +1228,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1297,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2073,10 +2073,10 @@
         <v>24</v>
       </c>
       <c r="T5" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2268,10 +2268,10 @@
         <v>26</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2333,10 +2333,10 @@
         <v>24</v>
       </c>
       <c r="T9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2398,10 +2398,10 @@
         <v>24</v>
       </c>
       <c r="T10" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2463,10 +2463,10 @@
         <v>26</v>
       </c>
       <c r="T11" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2528,10 +2528,10 @@
         <v>24</v>
       </c>
       <c r="T12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2593,10 +2593,10 @@
         <v>26</v>
       </c>
       <c r="T13" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2788,10 +2788,10 @@
         <v>26</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2853,10 +2853,10 @@
         <v>26</v>
       </c>
       <c r="T17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2983,10 +2983,10 @@
         <v>26</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3113,10 +3113,10 @@
         <v>26</v>
       </c>
       <c r="T21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3373,10 +3373,10 @@
         <v>24</v>
       </c>
       <c r="T25" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3438,10 +3438,10 @@
         <v>24</v>
       </c>
       <c r="T26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3503,10 +3503,10 @@
         <v>26</v>
       </c>
       <c r="T27" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3763,10 +3763,10 @@
         <v>26</v>
       </c>
       <c r="T31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4023,10 +4023,10 @@
         <v>26</v>
       </c>
       <c r="T35" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4088,10 +4088,10 @@
         <v>26</v>
       </c>
       <c r="T36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4153,10 +4153,10 @@
         <v>26</v>
       </c>
       <c r="T37" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4218,10 +4218,10 @@
         <v>24</v>
       </c>
       <c r="T38" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4283,10 +4283,10 @@
         <v>26</v>
       </c>
       <c r="T39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4478,10 +4478,10 @@
         <v>24</v>
       </c>
       <c r="T42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U42" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4543,10 +4543,10 @@
         <v>26</v>
       </c>
       <c r="T43" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U43" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4738,10 +4738,10 @@
         <v>26</v>
       </c>
       <c r="T46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U46" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4868,10 +4868,10 @@
         <v>26</v>
       </c>
       <c r="T48" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U48" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4933,10 +4933,10 @@
         <v>24</v>
       </c>
       <c r="T49" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U49" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4998,10 +4998,10 @@
         <v>26</v>
       </c>
       <c r="T50" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5063,10 +5063,10 @@
         <v>26</v>
       </c>
       <c r="T51" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U51" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5128,10 +5128,10 @@
         <v>26</v>
       </c>
       <c r="T52" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5193,10 +5193,10 @@
         <v>24</v>
       </c>
       <c r="T53" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U53" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5258,10 +5258,10 @@
         <v>26</v>
       </c>
       <c r="T54" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U54" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5323,10 +5323,10 @@
         <v>24</v>
       </c>
       <c r="T55" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5388,10 +5388,10 @@
         <v>26</v>
       </c>
       <c r="T56" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5648,10 +5648,10 @@
         <v>26</v>
       </c>
       <c r="T60" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U60" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5922,7 +5922,7 @@
         <v>35</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>26</v>
@@ -6036,10 +6036,10 @@
         <v>24</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6101,10 +6101,10 @@
         <v>26</v>
       </c>
       <c r="T67" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U67" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U67" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6115,7 +6115,7 @@
         <v>35</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>24</v>
@@ -6166,10 +6166,10 @@
         <v>24</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6180,7 +6180,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>24</v>
@@ -6231,10 +6231,10 @@
         <v>26</v>
       </c>
       <c r="T69" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U69" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6361,10 +6361,10 @@
         <v>26</v>
       </c>
       <c r="T71" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U71" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6489,10 +6489,10 @@
         <v>26</v>
       </c>
       <c r="T73" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U73" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6530,7 +6530,7 @@
         <v>23</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M74" s="2">
         <v>114</v>
@@ -6682,10 +6682,10 @@
         <v>26</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U76" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6747,10 +6747,10 @@
         <v>26</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U77" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6812,10 +6812,10 @@
         <v>26</v>
       </c>
       <c r="T78" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U78" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U78" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6877,10 +6877,10 @@
         <v>24</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6954,7 +6954,7 @@
         <v>35</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>26</v>
@@ -7135,10 +7135,10 @@
         <v>26</v>
       </c>
       <c r="T83" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U83" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U83" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7200,10 +7200,10 @@
         <v>24</v>
       </c>
       <c r="T84" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U84" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>24</v>
@@ -7344,7 +7344,7 @@
         <v>25</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>26</v>
@@ -7460,10 +7460,10 @@
         <v>26</v>
       </c>
       <c r="T88" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U88" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U88" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7474,7 +7474,7 @@
         <v>35</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>24</v>
@@ -7716,10 +7716,10 @@
         <v>26</v>
       </c>
       <c r="T92" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U92" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7846,10 +7846,10 @@
         <v>24</v>
       </c>
       <c r="T94" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U94" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U94" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7860,7 +7860,7 @@
         <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>24</v>
@@ -8039,10 +8039,10 @@
         <v>26</v>
       </c>
       <c r="T97" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U97" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8230,10 +8230,10 @@
         <v>26</v>
       </c>
       <c r="T100" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U100" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U100" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8372,7 +8372,7 @@
         <v>25</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>26</v>
@@ -8423,10 +8423,10 @@
         <v>26</v>
       </c>
       <c r="T103" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U103" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U103" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8464,7 +8464,7 @@
         <v>19</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M104" s="2">
         <v>140</v>
@@ -8567,7 +8567,7 @@
         <v>35</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>24</v>
@@ -8618,10 +8618,10 @@
         <v>26</v>
       </c>
       <c r="T106" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="U106" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U106" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8697,7 +8697,7 @@
         <v>35</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D108" s="23" t="s">
         <v>24</v>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="110" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>25</v>
@@ -8878,10 +8878,10 @@
         <v>24</v>
       </c>
       <c r="T110" s="9" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="U110" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8943,10 +8943,10 @@
         <v>26</v>
       </c>
       <c r="T111" s="9" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9008,10 +9008,10 @@
         <v>26</v>
       </c>
       <c r="T112" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U112" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9073,10 +9073,10 @@
         <v>26</v>
       </c>
       <c r="T113" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U113" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U113" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9087,7 +9087,7 @@
         <v>35</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>24</v>
@@ -9138,10 +9138,10 @@
         <v>26</v>
       </c>
       <c r="T114" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U114" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U114" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9152,7 +9152,7 @@
         <v>35</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>24</v>
@@ -9282,7 +9282,7 @@
         <v>35</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>24</v>
@@ -9398,10 +9398,10 @@
         <v>24</v>
       </c>
       <c r="T118" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U118" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U118" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9439,7 +9439,7 @@
         <v>24</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M119" s="2">
         <v>119</v>
@@ -9542,7 +9542,7 @@
         <v>49</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>24</v>
@@ -9607,7 +9607,7 @@
         <v>25</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>24</v>
@@ -9723,10 +9723,10 @@
         <v>24</v>
       </c>
       <c r="T123" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U123" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9802,7 +9802,7 @@
         <v>35</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>24</v>
@@ -9853,10 +9853,10 @@
         <v>26</v>
       </c>
       <c r="T125" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U125" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U125" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10048,10 +10048,10 @@
         <v>24</v>
       </c>
       <c r="T128" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U128" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U128" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10178,10 +10178,10 @@
         <v>24</v>
       </c>
       <c r="T130" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U130" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10243,10 +10243,10 @@
         <v>24</v>
       </c>
       <c r="T131" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U131" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U131" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10257,7 +10257,7 @@
         <v>25</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>26</v>
@@ -10373,10 +10373,10 @@
         <v>24</v>
       </c>
       <c r="T133" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U133" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U133" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10438,10 +10438,10 @@
         <v>24</v>
       </c>
       <c r="T134" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U134" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10568,10 +10568,10 @@
         <v>24</v>
       </c>
       <c r="T136" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U136" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10763,10 +10763,10 @@
         <v>26</v>
       </c>
       <c r="T139" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U139" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10828,10 +10828,10 @@
         <v>24</v>
       </c>
       <c r="T140" s="10" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U140" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11023,10 +11023,10 @@
         <v>26</v>
       </c>
       <c r="T143" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U143" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11088,10 +11088,10 @@
         <v>24</v>
       </c>
       <c r="T144" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U144" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11102,7 +11102,7 @@
         <v>35</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>24</v>
@@ -11167,7 +11167,7 @@
         <v>35</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>24</v>
@@ -11283,10 +11283,10 @@
         <v>24</v>
       </c>
       <c r="T147" s="10" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U147" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11348,10 +11348,10 @@
         <v>26</v>
       </c>
       <c r="T148" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U148" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11427,7 +11427,7 @@
         <v>35</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>24</v>
@@ -11492,7 +11492,7 @@
         <v>35</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>26</v>
@@ -11738,10 +11738,10 @@
         <v>24</v>
       </c>
       <c r="T154" s="10" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U154" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11933,10 +11933,10 @@
         <v>26</v>
       </c>
       <c r="T157" s="10" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U157" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11947,7 +11947,7 @@
         <v>35</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>24</v>
@@ -11974,7 +11974,7 @@
         <v>28</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M158" s="2">
         <v>112</v>
@@ -12074,7 +12074,7 @@
         <v>19</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>54</v>
@@ -12323,10 +12323,10 @@
         <v>26</v>
       </c>
       <c r="T163" s="10" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U163" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12402,7 +12402,7 @@
         <v>25</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>26</v>
@@ -12429,7 +12429,7 @@
         <v>34</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M165" s="2">
         <v>132</v>
@@ -12583,10 +12583,10 @@
         <v>26</v>
       </c>
       <c r="T167" s="10" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="U167" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12624,7 +12624,7 @@
         <v>23</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M168" s="2">
         <v>120</v>
@@ -12689,7 +12689,7 @@
         <v>24</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M169" s="2">
         <v>120</v>
@@ -12776,10 +12776,10 @@
         <v>24</v>
       </c>
       <c r="T170" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U170" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12839,10 +12839,10 @@
         <v>26</v>
       </c>
       <c r="T171" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U171" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U171" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12902,10 +12902,10 @@
         <v>26</v>
       </c>
       <c r="T172" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U172" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13028,10 +13028,10 @@
         <v>26</v>
       </c>
       <c r="T174" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U174" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U174" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13042,7 +13042,7 @@
         <v>35</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>24</v>
@@ -13091,10 +13091,10 @@
         <v>26</v>
       </c>
       <c r="T175" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U175" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U175" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13168,7 +13168,7 @@
         <v>25</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>24</v>
@@ -13294,7 +13294,7 @@
         <v>25</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>24</v>
@@ -13321,7 +13321,7 @@
         <v>26</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M179" s="2">
         <v>121</v>
@@ -13345,10 +13345,10 @@
         <v>26</v>
       </c>
       <c r="T179" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U179" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U179" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="180" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13408,10 +13408,10 @@
         <v>26</v>
       </c>
       <c r="T180" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U180" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U180" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13449,7 +13449,7 @@
         <v>26</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M181" s="2">
         <v>138</v>
@@ -13550,7 +13550,7 @@
         <v>49</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>24</v>
@@ -13577,7 +13577,7 @@
         <v>19</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M183" s="2">
         <v>108</v>
@@ -13642,7 +13642,7 @@
         <v>22</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M184" s="2">
         <v>111</v>
@@ -13729,10 +13729,10 @@
         <v>24</v>
       </c>
       <c r="T185" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U185" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U185" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="186" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13743,7 +13743,7 @@
         <v>49</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>24</v>
@@ -13806,7 +13806,7 @@
         <v>25</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>24</v>
@@ -13833,7 +13833,7 @@
         <v>33</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M187" s="2">
         <v>112</v>
@@ -13857,10 +13857,10 @@
         <v>26</v>
       </c>
       <c r="T187" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U187" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U187" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13886,7 +13886,7 @@
         <v>273</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>30</v>
@@ -13898,7 +13898,7 @@
         <v>36</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M188" s="2">
         <v>123</v>
@@ -13936,7 +13936,7 @@
         <v>25</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>24</v>
@@ -13999,7 +13999,7 @@
         <v>35</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>26</v>
@@ -14026,7 +14026,7 @@
         <v>33</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M190" s="2">
         <v>116</v>
@@ -14113,10 +14113,10 @@
         <v>26</v>
       </c>
       <c r="T191" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U191" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="U191" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14127,7 +14127,7 @@
         <v>25</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>24</v>
@@ -14491,10 +14491,10 @@
         <v>26</v>
       </c>
       <c r="T197" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U197" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U197" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="198" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14554,10 +14554,10 @@
         <v>24</v>
       </c>
       <c r="T198" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U198" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U198" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="199" spans="1:21" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14568,7 +14568,7 @@
         <v>35</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>24</v>
@@ -14721,7 +14721,7 @@
         <v>26</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M201" s="2">
         <v>124</v>
@@ -14745,7 +14745,7 @@
         <v>26</v>
       </c>
       <c r="T201" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U201" s="41" t="s">
         <v>86</v>
@@ -14808,7 +14808,7 @@
         <v>26</v>
       </c>
       <c r="T202" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U202" s="41" t="s">
         <v>86</v>
@@ -14871,10 +14871,10 @@
         <v>26</v>
       </c>
       <c r="T203" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U203" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U203" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14934,10 +14934,10 @@
         <v>24</v>
       </c>
       <c r="T204" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U204" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U204" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="205" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14997,7 +14997,7 @@
         <v>26</v>
       </c>
       <c r="T205" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U205" s="41" t="s">
         <v>86</v>
@@ -15060,7 +15060,7 @@
         <v>26</v>
       </c>
       <c r="T206" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U206" s="41" t="s">
         <v>84</v>
@@ -15123,10 +15123,10 @@
         <v>26</v>
       </c>
       <c r="T207" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U207" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U207" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="208" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15200,7 +15200,7 @@
         <v>25</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>24</v>
@@ -15249,7 +15249,7 @@
         <v>26</v>
       </c>
       <c r="T209" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U209" s="41" t="s">
         <v>86</v>
@@ -15312,10 +15312,10 @@
         <v>26</v>
       </c>
       <c r="T210" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U210" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U210" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="211" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15375,10 +15375,10 @@
         <v>26</v>
       </c>
       <c r="T211" s="10" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U211" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15416,7 +15416,7 @@
         <v>25</v>
       </c>
       <c r="L212" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M212" s="2">
         <v>121</v>
@@ -15454,7 +15454,7 @@
         <v>23</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>26</v>
@@ -15481,7 +15481,7 @@
         <v>27</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M213" s="2">
         <v>113</v>
@@ -15505,7 +15505,7 @@
         <v>26</v>
       </c>
       <c r="T213" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U213" s="41" t="s">
         <v>86</v>
@@ -15568,7 +15568,7 @@
         <v>26</v>
       </c>
       <c r="T214" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U214" s="41" t="s">
         <v>86</v>
@@ -15582,7 +15582,7 @@
         <v>23</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>24</v>
@@ -15631,7 +15631,7 @@
         <v>24</v>
       </c>
       <c r="T215" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U215" s="41" t="s">
         <v>84</v>
@@ -15694,10 +15694,10 @@
         <v>24</v>
       </c>
       <c r="T216" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U216" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U216" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="217" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15708,7 +15708,7 @@
         <v>35</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>24</v>
@@ -15883,10 +15883,10 @@
         <v>24</v>
       </c>
       <c r="T219" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U219" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U219" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15946,10 +15946,10 @@
         <v>24</v>
       </c>
       <c r="T220" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U220" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U220" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="221" spans="1:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16113,7 +16113,7 @@
         <v>24</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M223" s="2">
         <v>114</v>
@@ -16137,7 +16137,7 @@
         <v>26</v>
       </c>
       <c r="T223" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="U223" s="41" t="s">
         <v>86</v>
@@ -16151,7 +16151,7 @@
         <v>25</v>
       </c>
       <c r="C224" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D224" s="41" t="s">
         <v>24</v>
@@ -16178,7 +16178,7 @@
         <v>25</v>
       </c>
       <c r="L224" s="42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M224" s="42">
         <v>108</v>
@@ -16202,10 +16202,10 @@
         <v>26</v>
       </c>
       <c r="T224" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U224" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="U224" s="41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="225" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16216,7 +16216,7 @@
         <v>35</v>
       </c>
       <c r="C225" s="37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D225" s="37" t="s">
         <v>24</v>
@@ -16243,7 +16243,7 @@
         <v>25</v>
       </c>
       <c r="L225" s="34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M225" s="38">
         <v>115</v>
@@ -16267,7 +16267,7 @@
         <v>24</v>
       </c>
       <c r="T225" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U225" s="47" t="s">
         <v>86</v>
@@ -16308,7 +16308,7 @@
         <v>31</v>
       </c>
       <c r="L226" s="34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M226" s="38">
         <v>120</v>
@@ -16346,7 +16346,7 @@
         <v>49</v>
       </c>
       <c r="C227" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D227" s="37" t="s">
         <v>24</v>
@@ -16361,7 +16361,7 @@
         <v>257</v>
       </c>
       <c r="H227" s="37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I227" s="37" t="s">
         <v>30</v>
@@ -16373,7 +16373,7 @@
         <v>31</v>
       </c>
       <c r="L227" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M227" s="38">
         <v>117</v>
@@ -16460,7 +16460,7 @@
         <v>24</v>
       </c>
       <c r="T228" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U228" s="47" t="s">
         <v>84</v>
@@ -16523,10 +16523,10 @@
         <v>24</v>
       </c>
       <c r="T229" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U229" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U229" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="230" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16627,7 +16627,7 @@
         <v>31</v>
       </c>
       <c r="L231" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M231" s="38">
         <v>110</v>
@@ -16651,10 +16651,10 @@
         <v>24</v>
       </c>
       <c r="T231" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U231" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U231" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16714,7 +16714,7 @@
         <v>24</v>
       </c>
       <c r="T232" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U232" s="47" t="s">
         <v>86</v>
@@ -16755,7 +16755,7 @@
         <v>21</v>
       </c>
       <c r="L233" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M233" s="38">
         <v>108</v>
@@ -16779,7 +16779,7 @@
         <v>24</v>
       </c>
       <c r="T233" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U233" s="47" t="s">
         <v>86</v>
@@ -16842,7 +16842,7 @@
         <v>24</v>
       </c>
       <c r="T234" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U234" s="47" t="s">
         <v>86</v>
@@ -16883,7 +16883,7 @@
         <v>25</v>
       </c>
       <c r="L235" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M235" s="38">
         <v>118</v>
@@ -16907,7 +16907,7 @@
         <v>24</v>
       </c>
       <c r="T235" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U235" s="47" t="s">
         <v>86</v>
@@ -16948,7 +16948,7 @@
         <v>38</v>
       </c>
       <c r="L236" s="34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M236" s="38">
         <v>132</v>
@@ -16972,7 +16972,7 @@
         <v>26</v>
       </c>
       <c r="T236" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U236" s="47" t="s">
         <v>86</v>
@@ -17035,7 +17035,7 @@
         <v>26</v>
       </c>
       <c r="T237" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U237" s="47" t="s">
         <v>84</v>
@@ -17049,7 +17049,7 @@
         <v>35</v>
       </c>
       <c r="C238" s="37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D238" s="37" t="s">
         <v>24</v>
@@ -17098,7 +17098,7 @@
         <v>26</v>
       </c>
       <c r="T238" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U238" s="47" t="s">
         <v>86</v>
@@ -17139,7 +17139,7 @@
         <v>21</v>
       </c>
       <c r="L239" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M239" s="38">
         <v>120</v>
@@ -17163,7 +17163,7 @@
         <v>26</v>
       </c>
       <c r="T239" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U239" s="47" t="s">
         <v>86</v>
@@ -17177,7 +17177,7 @@
         <v>25</v>
       </c>
       <c r="C240" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D240" s="37" t="s">
         <v>24</v>
@@ -17226,10 +17226,10 @@
         <v>24</v>
       </c>
       <c r="T240" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U240" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U240" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="241" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17289,7 +17289,7 @@
         <v>24</v>
       </c>
       <c r="T241" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U241" s="47" t="s">
         <v>86</v>
@@ -17352,10 +17352,10 @@
         <v>26</v>
       </c>
       <c r="T242" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U242" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17366,7 +17366,7 @@
         <v>25</v>
       </c>
       <c r="C243" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D243" s="37" t="s">
         <v>24</v>
@@ -17393,7 +17393,7 @@
         <v>34</v>
       </c>
       <c r="L243" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M243" s="38">
         <v>111</v>
@@ -17488,7 +17488,7 @@
     </row>
     <row r="245" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B245" s="45" t="s">
         <v>35</v>
@@ -17543,7 +17543,7 @@
         <v>24</v>
       </c>
       <c r="T245" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U245" s="47" t="s">
         <v>86</v>
@@ -17551,13 +17551,13 @@
     </row>
     <row r="246" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B246" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C246" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D246" s="37" t="s">
         <v>24</v>
@@ -17669,10 +17669,10 @@
         <v>24</v>
       </c>
       <c r="T247" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U247" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U247" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17732,7 +17732,7 @@
         <v>24</v>
       </c>
       <c r="T248" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U248" s="47" t="s">
         <v>86</v>
@@ -17740,7 +17740,7 @@
     </row>
     <row r="249" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B249" s="45" t="s">
         <v>35</v>
@@ -17795,7 +17795,7 @@
         <v>24</v>
       </c>
       <c r="T249" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U249" s="47" t="s">
         <v>84</v>
@@ -17962,7 +17962,7 @@
         <v>29</v>
       </c>
       <c r="L252" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M252" s="38">
         <v>117</v>
@@ -17986,7 +17986,7 @@
         <v>24</v>
       </c>
       <c r="T252" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U252" s="47" t="s">
         <v>86</v>
@@ -18027,7 +18027,7 @@
         <v>24</v>
       </c>
       <c r="L253" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M253" s="38">
         <v>108</v>
@@ -18051,7 +18051,7 @@
         <v>24</v>
       </c>
       <c r="T253" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U253" s="47" t="s">
         <v>86</v>
@@ -18128,7 +18128,7 @@
         <v>23</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D255" s="37" t="s">
         <v>24</v>
@@ -18155,7 +18155,7 @@
         <v>22</v>
       </c>
       <c r="L255" s="34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M255" s="38">
         <v>109</v>
@@ -18193,7 +18193,7 @@
         <v>35</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D256" s="37" t="s">
         <v>24</v>
@@ -18220,7 +18220,7 @@
         <v>23</v>
       </c>
       <c r="L256" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M256" s="38">
         <v>137</v>
@@ -18307,10 +18307,10 @@
         <v>26</v>
       </c>
       <c r="T257" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U257" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U257" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18433,10 +18433,10 @@
         <v>26</v>
       </c>
       <c r="T259" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U259" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U259" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="260" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18444,7 +18444,7 @@
         <v>19</v>
       </c>
       <c r="B260" s="45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C260" s="37" t="s">
         <v>27</v>
@@ -18474,7 +18474,7 @@
         <v>22</v>
       </c>
       <c r="L260" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M260" s="38">
         <v>112</v>
@@ -18498,10 +18498,10 @@
         <v>24</v>
       </c>
       <c r="T260" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U260" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U260" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18561,7 +18561,7 @@
         <v>24</v>
       </c>
       <c r="T261" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U261" s="47" t="s">
         <v>86</v>
@@ -18687,10 +18687,10 @@
         <v>24</v>
       </c>
       <c r="T263" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U263" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18701,7 +18701,7 @@
         <v>35</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D264" s="37" t="s">
         <v>26</v>
@@ -18750,10 +18750,10 @@
         <v>24</v>
       </c>
       <c r="T264" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U264" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U264" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18764,7 +18764,7 @@
         <v>35</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D265" s="37" t="s">
         <v>24</v>
@@ -18813,10 +18813,10 @@
         <v>26</v>
       </c>
       <c r="T265" s="46" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U265" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18876,10 +18876,10 @@
         <v>26</v>
       </c>
       <c r="T266" s="46" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="U266" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18917,7 +18917,7 @@
         <v>29</v>
       </c>
       <c r="L267" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M267" s="38">
         <v>117</v>
@@ -18941,7 +18941,7 @@
         <v>24</v>
       </c>
       <c r="T267" s="46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U267" s="47" t="s">
         <v>86</v>
@@ -18982,7 +18982,7 @@
         <v>23</v>
       </c>
       <c r="L268" s="34" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M268" s="38">
         <v>111</v>
@@ -19006,10 +19006,10 @@
         <v>24</v>
       </c>
       <c r="T268" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U268" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U268" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="269" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19069,10 +19069,10 @@
         <v>24</v>
       </c>
       <c r="T269" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U269" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U269" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="270" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19132,10 +19132,10 @@
         <v>24</v>
       </c>
       <c r="T270" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U270" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U270" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="271" spans="1:21" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19146,7 +19146,7 @@
         <v>35</v>
       </c>
       <c r="C271" s="37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D271" s="37" t="s">
         <v>26</v>
@@ -19195,10 +19195,10 @@
         <v>26</v>
       </c>
       <c r="T271" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="U271" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="U271" s="47" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -19209,6 +19209,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Content1 xmlns="b35d94ff-169f-4fda-be0e-711916431615">FOUO</Content1>
+    <_dlc_DocId xmlns="d7a46b7f-bbdc-422f-b9e0-20b6fc8455c0">KNWUJA4RVW4F-197578868-13868</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="d7a46b7f-bbdc-422f-b9e0-20b6fc8455c0">
+      <Url>https://recruiting.rsn.army.mil/mrb/SORB/_layouts/15/DocIdRedir.aspx?ID=KNWUJA4RVW4F-197578868-13868</Url>
+      <Description>KNWUJA4RVW4F-197578868-13868</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -19254,29 +19267,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Content1 xmlns="b35d94ff-169f-4fda-be0e-711916431615">FOUO</Content1>
-    <_dlc_DocId xmlns="d7a46b7f-bbdc-422f-b9e0-20b6fc8455c0">KNWUJA4RVW4F-197578868-13868</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="d7a46b7f-bbdc-422f-b9e0-20b6fc8455c0">
-      <Url>https://recruiting.rsn.army.mil/mrb/SORB/_layouts/15/DocIdRedir.aspx?ID=KNWUJA4RVW4F-197578868-13868</Url>
-      <Description>KNWUJA4RVW4F-197578868-13868</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9CFC2744C53CC4A903B5B4AF3029F9A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="97ee4e959f82058e0960f3436bd440fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b35d94ff-169f-4fda-be0e-711916431615" xmlns:ns3="d7a46b7f-bbdc-422f-b9e0-20b6fc8455c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0533c712f566362aefb0b1437ef461a6" ns2:_="" ns3:_="">
     <xsd:import namespace="b35d94ff-169f-4fda-be0e-711916431615"/>
@@ -19455,15 +19446,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0FA0C1D-B603-44B6-B746-734BD0BD0171}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4B59D60-522C-422D-BF49-B142D4FE83FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -19474,15 +19466,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01D88A0-43A1-423E-9143-1A36C5249C68}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0FA0C1D-B603-44B6-B746-734BD0BD0171}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A31AEAF9-AA9A-4216-9B91-3A1C55DB06CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19499,4 +19491,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D01D88A0-43A1-423E-9143-1A36C5249C68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>